--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="306">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,6 +1212,22 @@
   </si>
   <si>
     <t>[8,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1877,13 +1893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1904,10 +1920,11 @@
     <col min="14" max="14" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="9" style="8"/>
     <col min="22" max="23" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="8"/>
+    <col min="24" max="24" width="17.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -1921,7 +1938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
@@ -1991,8 +2008,11 @@
       <c r="W2" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="66">
+      <c r="X2" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="66">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -2059,8 +2079,11 @@
       <c r="W3" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="29" t="s">
         <v>160</v>
       </c>
@@ -2128,10 +2151,13 @@
         <v>219</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="33" customFormat="1">
+        <v>304</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="33" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -2201,8 +2227,11 @@
       <c r="W5" s="33" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="33" customFormat="1">
+      <c r="X5" s="32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="33" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>290</v>
       </c>
@@ -2272,8 +2301,11 @@
       <c r="W6" s="33" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" s="33" customFormat="1">
+      <c r="X6" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="33" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>289</v>
       </c>
@@ -2343,8 +2375,11 @@
       <c r="W7" s="33" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" s="33" customFormat="1">
+      <c r="X7" s="32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="33" customFormat="1">
       <c r="A8" s="29">
         <v>99</v>
       </c>
@@ -2414,8 +2449,9 @@
       <c r="W8" s="33" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.25">
+      <c r="X8" s="32"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25">
       <c r="A9" s="30">
         <v>101</v>
       </c>
@@ -2485,8 +2521,9 @@
       <c r="W9" s="33" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.25">
+      <c r="X9" s="32"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25">
       <c r="A10" s="30">
         <v>102</v>
       </c>
@@ -2556,8 +2593,9 @@
       <c r="W10" s="33" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="17.25">
+      <c r="X10" s="32"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25">
       <c r="A11" s="30">
         <v>103</v>
       </c>
@@ -2627,8 +2665,11 @@
       <c r="W11" s="33" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="17.25">
+      <c r="X11" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="17.25">
       <c r="A12" s="30">
         <v>201</v>
       </c>
@@ -2698,8 +2739,11 @@
       <c r="W12" s="33" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="17.25">
+      <c r="X12" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="17.25">
       <c r="A13" s="30">
         <v>202</v>
       </c>
@@ -2769,8 +2813,11 @@
       <c r="W13" s="33" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.25">
+      <c r="X13" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="17.25">
       <c r="A14" s="30">
         <v>203</v>
       </c>
@@ -2840,8 +2887,11 @@
       <c r="W14" s="33" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="17.25">
+      <c r="X14" s="32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17.25">
       <c r="A15" s="30">
         <v>204</v>
       </c>
@@ -2911,8 +2961,11 @@
       <c r="W15" s="33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="17.25">
+      <c r="X15" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25">
       <c r="A16" s="30">
         <v>301</v>
       </c>
@@ -2982,8 +3035,11 @@
       <c r="W16" s="33" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="X16" s="32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="38" customFormat="1" ht="17.25">
       <c r="A17" s="36">
         <v>401</v>
       </c>
@@ -3053,8 +3109,11 @@
       <c r="W17" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="X17" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="17.25">
       <c r="A18" s="36">
         <v>402</v>
       </c>
@@ -3124,8 +3183,11 @@
       <c r="W18" s="33" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="X18" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="38" customFormat="1" ht="17.25">
       <c r="A19" s="36">
         <v>403</v>
       </c>
@@ -3195,8 +3257,11 @@
       <c r="W19" s="33" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="X19" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="38" customFormat="1" ht="17.25">
       <c r="A20" s="36">
         <v>404</v>
       </c>
@@ -3266,8 +3331,11 @@
       <c r="W20" s="33" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="X20" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="38" customFormat="1" ht="17.25">
       <c r="A21" s="36">
         <v>405</v>
       </c>
@@ -3336,6 +3404,9 @@
       </c>
       <c r="W21" s="33" t="s">
         <v>261</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="307">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1227,7 +1227,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
+    <t>测试10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里不会读到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1893,13 +1897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1924,7 +1928,7 @@
     <col min="25" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:28">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:28">
       <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
@@ -2006,13 +2010,16 @@
         <v>218</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="28" customFormat="1" ht="66">
+        <v>305</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="28" customFormat="1" ht="66">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:28">
       <c r="A4" s="29" t="s">
         <v>160</v>
       </c>
@@ -2154,10 +2161,10 @@
         <v>304</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="33" customFormat="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="33" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="33" customFormat="1">
+    <row r="6" spans="1:28" s="33" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>290</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="33" customFormat="1">
+    <row r="7" spans="1:28" s="33" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>289</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="33" customFormat="1">
+    <row r="8" spans="1:28" s="33" customFormat="1">
       <c r="A8" s="29">
         <v>99</v>
       </c>
@@ -2451,7 +2458,7 @@
       </c>
       <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="1:24" ht="17.25">
+    <row r="9" spans="1:28" ht="17.25">
       <c r="A9" s="30">
         <v>101</v>
       </c>
@@ -2523,7 +2530,7 @@
       </c>
       <c r="X9" s="32"/>
     </row>
-    <row r="10" spans="1:24" ht="17.25">
+    <row r="10" spans="1:28" ht="17.25">
       <c r="A10" s="30">
         <v>102</v>
       </c>
@@ -2595,7 +2602,7 @@
       </c>
       <c r="X10" s="32"/>
     </row>
-    <row r="11" spans="1:24" ht="17.25">
+    <row r="11" spans="1:28" ht="17.25">
       <c r="A11" s="30">
         <v>103</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17.25">
+    <row r="12" spans="1:28" ht="17.25">
       <c r="A12" s="30">
         <v>201</v>
       </c>
@@ -2743,7 +2750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="17.25">
+    <row r="13" spans="1:28" ht="17.25">
       <c r="A13" s="30">
         <v>202</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="17.25">
+    <row r="14" spans="1:28" ht="17.25">
       <c r="A14" s="30">
         <v>203</v>
       </c>
@@ -2891,7 +2898,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17.25">
+    <row r="15" spans="1:28" ht="17.25">
       <c r="A15" s="30">
         <v>204</v>
       </c>
@@ -2965,7 +2972,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="17.25">
+    <row r="16" spans="1:28" ht="17.25">
       <c r="A16" s="30">
         <v>301</v>
       </c>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="308">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,10 +846,6 @@
   </si>
   <si>
     <t>导出配置：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${A}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1232,6 +1228,14 @@
   </si>
   <si>
     <t>这里不会读到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1900,10 +1904,10 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1933,13 +1937,16 @@
         <v>204</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>205</v>
+        <v>287</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -1983,40 +1990,40 @@
         <v>154</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="W2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="28" customFormat="1" ht="66">
@@ -2057,37 +2064,37 @@
         <v>184</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="W3" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2098,13 +2105,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>265</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>160</v>
@@ -2140,28 +2147,28 @@
         <v>160</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="33" customFormat="1">
@@ -2205,42 +2212,42 @@
         <v>189</v>
       </c>
       <c r="N5" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="P5" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="Q5" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R5" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="S5" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="T5" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="W5" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="W5" s="33" t="s">
-        <v>300</v>
-      </c>
       <c r="X5" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="33" customFormat="1">
       <c r="A6" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>96</v>
@@ -2279,34 +2286,34 @@
         <v>187</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P6" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q6" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="R6" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="T6" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="U6" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="W6" s="33" t="s">
         <v>227</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>228</v>
       </c>
       <c r="X6" s="32" t="s">
         <v>187</v>
@@ -2314,76 +2321,76 @@
     </row>
     <row r="7" spans="1:28" s="33" customFormat="1">
       <c r="A7" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="K7" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="R7" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="S7" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="W7" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="W7" s="33" t="s">
-        <v>287</v>
-      </c>
       <c r="X7" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="33" customFormat="1">
@@ -2427,34 +2434,34 @@
         <v>190</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R8" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="S8" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S8" s="33" t="s">
+      <c r="T8" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T8" s="33" t="s">
+      <c r="U8" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="U8" s="33" t="s">
-        <v>233</v>
-      </c>
       <c r="V8" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="W8" s="33" t="s">
         <v>247</v>
-      </c>
-      <c r="W8" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="X8" s="32"/>
     </row>
@@ -2499,34 +2506,34 @@
         <v>191</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R9" s="33" t="s">
+      <c r="S9" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S9" s="33" t="s">
+      <c r="T9" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T9" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U9" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V9" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X9" s="32"/>
     </row>
@@ -2571,34 +2578,34 @@
         <v>192</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R10" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="S10" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S10" s="33" t="s">
+      <c r="T10" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T10" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U10" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V10" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X10" s="32"/>
     </row>
@@ -2643,34 +2650,34 @@
         <v>193</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="S11" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="T11" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T11" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U11" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V11" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X11" s="32" t="s">
         <v>193</v>
@@ -2717,34 +2724,34 @@
         <v>194</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="S12" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="T12" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U12" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V12" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X12" s="32" t="s">
         <v>194</v>
@@ -2791,34 +2798,34 @@
         <v>195</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="S13" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="T13" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T13" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U13" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V13" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X13" s="32" t="s">
         <v>195</v>
@@ -2865,34 +2872,34 @@
         <v>196</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="S14" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="T14" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T14" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U14" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V14" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X14" s="32" t="s">
         <v>196</v>
@@ -2939,34 +2946,34 @@
         <v>197</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R15" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="S15" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="T15" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T15" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U15" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X15" s="32" t="s">
         <v>197</v>
@@ -3013,34 +3020,34 @@
         <v>198</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R16" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="S16" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="T16" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T16" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U16" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V16" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="X16" s="32" t="s">
         <v>198</v>
@@ -3087,34 +3094,34 @@
         <v>199</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="S17" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="T17" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T17" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U17" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V17" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X17" s="32" t="s">
         <v>199</v>
@@ -3161,34 +3168,34 @@
         <v>200</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R18" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R18" s="33" t="s">
+      <c r="S18" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="T18" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T18" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U18" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V18" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X18" s="32" t="s">
         <v>200</v>
@@ -3235,34 +3242,34 @@
         <v>201</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="S19" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="T19" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T19" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U19" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V19" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X19" s="32" t="s">
         <v>201</v>
@@ -3309,34 +3316,34 @@
         <v>202</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R20" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="S20" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="T20" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T20" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U20" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V20" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X20" s="32" t="s">
         <v>202</v>
@@ -3383,34 +3390,34 @@
         <v>203</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R21" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="S21" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="T21" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="T21" s="33" t="s">
-        <v>232</v>
-      </c>
       <c r="U21" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="V21" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="V21" s="33" t="s">
-        <v>247</v>
-      </c>
       <c r="W21" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X21" s="32" t="s">
         <v>203</v>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="309">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,6 +1236,10 @@
   </si>
   <si>
     <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜地'哈哈'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1907,7 +1911,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3159,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>10</v>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_建筑" sheetId="1" r:id="rId1"/>
     <sheet name="ErrorTest" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_建筑!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="308">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1025,10 +1025,6 @@
   </si>
   <si>
     <t>[哈哈,呵呵14]</t>
-  </si>
-  <si>
-    <t>CfgBuildingNew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,0,0</t>
@@ -1911,7 +1907,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1941,16 +1937,16 @@
         <v>204</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -2021,13 +2017,13 @@
         <v>217</v>
       </c>
       <c r="W2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="28" customFormat="1" ht="66">
@@ -2098,7 +2094,7 @@
         <v>219</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -2109,13 +2105,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>264</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>160</v>
@@ -2169,10 +2165,10 @@
         <v>218</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X4" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="33" customFormat="1">
@@ -2216,42 +2212,42 @@
         <v>189</v>
       </c>
       <c r="N5" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="P5" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="Q5" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R5" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="S5" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="T5" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="U5" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="U5" s="33" t="s">
+      <c r="V5" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="W5" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="W5" s="33" t="s">
-        <v>299</v>
-      </c>
       <c r="X5" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="33" customFormat="1">
       <c r="A6" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>96</v>
@@ -2325,76 +2321,76 @@
     </row>
     <row r="7" spans="1:28" s="33" customFormat="1">
       <c r="A7" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="K7" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="R7" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="S7" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="W7" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="W7" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="X7" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="33" customFormat="1">
@@ -2441,7 +2437,7 @@
         <v>207</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>210</v>
@@ -3163,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L18" s="37" t="s">
         <v>10</v>
@@ -4745,11 +4741,11 @@
         <v>7302</v>
       </c>
       <c r="X10" t="e">
-        <f>Data_Sheet1!#REF!+100</f>
+        <f>Data_建筑!#REF!+100</f>
         <v>#REF!</v>
       </c>
       <c r="Y10" t="e">
-        <f>Data_Sheet1!#REF!+100</f>
+        <f>Data_建筑!#REF!+100</f>
         <v>#REF!</v>
       </c>
       <c r="Z10" s="6">

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="309">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1236,6 +1236,10 @@
   </si>
   <si>
     <t>菜地'哈哈'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1907,7 +1911,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,6 +1951,9 @@
       </c>
       <c r="E1" s="8" t="s">
         <v>306</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:28">

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="310">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1240,6 +1240,10 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执政大厅666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1908,10 +1912,10 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1927,7 +1931,7 @@
     <col min="9" max="9" width="25" style="8" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="9" style="8"/>
@@ -2725,7 +2729,7 @@
         <v>135</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>194</v>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -1239,11 +1239,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>执政大厅666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执政大厅666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,10 +1912,10 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1957,7 +1957,7 @@
         <v>306</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -2729,7 +2729,7 @@
         <v>135</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M12" s="32" t="s">
         <v>194</v>

--- a/res/source/cfg_building.xlsx
+++ b/res/source/cfg_building.xlsx
@@ -28,8 +28,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+导出类命名空间</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="311">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,12 +1280,16 @@
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Game.Cfg.CfgTitle</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,6 +1375,20 @@
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1425,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,6 +1629,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1915,7 +1970,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1950,13 +2005,16 @@
       <c r="C1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3438,6 +3496,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
